--- a/public/contact-submissions.xlsx
+++ b/public/contact-submissions.xlsx
@@ -411,7 +411,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -688,9 +688,51 @@
         <v>2025-08-27T02:13:25.259Z</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>al</v>
+      </c>
+      <c r="B20" t="str">
+        <v>testtt@gmail.com</v>
+      </c>
+      <c r="C20" t="str">
+        <v>dddf</v>
+      </c>
+      <c r="D20" t="str">
+        <v>2025-09-01T10:51:48.095Z</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>test</v>
+      </c>
+      <c r="B21" t="str">
+        <v>testtt@gmail.com</v>
+      </c>
+      <c r="C21" t="str">
+        <v>how do i calculate the fnsnces</v>
+      </c>
+      <c r="D21" t="str">
+        <v>2025-09-01T12:31:02.174Z</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>final</v>
+      </c>
+      <c r="B22" t="str">
+        <v>final@gamil..com</v>
+      </c>
+      <c r="C22" t="str">
+        <v>final  query</v>
+      </c>
+      <c r="D22" t="str">
+        <v>2025-09-02T03:42:46.107Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D19"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D22"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/contact-submissions.xlsx
+++ b/public/contact-submissions.xlsx
@@ -411,7 +411,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -730,9 +730,93 @@
         <v>2025-09-02T03:42:46.107Z</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>test23</v>
+      </c>
+      <c r="B23" t="str">
+        <v>tes@gmail.com</v>
+      </c>
+      <c r="C23" t="str">
+        <v>gdggdgdgdg</v>
+      </c>
+      <c r="D23" t="str">
+        <v>2025-09-02T06:43:29.268Z</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Tes</v>
+      </c>
+      <c r="B24" t="str">
+        <v>tes</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Ggffhh</v>
+      </c>
+      <c r="D24" t="str">
+        <v>2025-09-02T06:55:02.407Z</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>tesss</v>
+      </c>
+      <c r="B25" t="str">
+        <v>vbnmnvfdf</v>
+      </c>
+      <c r="C25" t="str">
+        <v>sdfghjkdfgvbh</v>
+      </c>
+      <c r="D25" t="str">
+        <v>2025-09-02T07:05:56.002Z</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Test User</v>
+      </c>
+      <c r="B26" t="str">
+        <v>test@example.com</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Test submission</v>
+      </c>
+      <c r="D26" t="str">
+        <v>2025-09-02T07:08:43.097Z</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Test User 2</v>
+      </c>
+      <c r="B27" t="str">
+        <v>test2@example.com</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Testing Google Sheets</v>
+      </c>
+      <c r="D27" t="str">
+        <v>2025-09-02T07:09:47.425Z</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v xml:space="preserve">Testing </v>
+      </c>
+      <c r="B28" t="str">
+        <v>test5t@gmail.com</v>
+      </c>
+      <c r="C28" t="str">
+        <v xml:space="preserve">Google night </v>
+      </c>
+      <c r="D28" t="str">
+        <v>2025-09-02T07:10:38.003Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D28"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/contact-submissions.xlsx
+++ b/public/contact-submissions.xlsx
@@ -411,7 +411,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -814,9 +814,65 @@
         <v>2025-09-02T07:10:38.003Z</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v xml:space="preserve">Test </v>
+      </c>
+      <c r="B29" t="str">
+        <v>next@gmaul.com</v>
+      </c>
+      <c r="C29" t="str">
+        <v xml:space="preserve">I don't know the co-founder </v>
+      </c>
+      <c r="D29" t="str">
+        <v>2025-09-03T15:26:15.529Z</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v xml:space="preserve">Mahmud A Hajjo </v>
+      </c>
+      <c r="B30" t="str">
+        <v>agencyhajjo@gmail.com</v>
+      </c>
+      <c r="C30" t="str">
+        <v>I would love to know about Thamani</v>
+      </c>
+      <c r="D30" t="str">
+        <v>2025-09-05T13:03:23.250Z</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Test</v>
+      </c>
+      <c r="B31" t="str">
+        <v>testinggooglesheet@gmail.com</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Testing the Google form</v>
+      </c>
+      <c r="D31" t="str">
+        <v>2025-09-05T14:38:15.736Z</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>qassim</v>
+      </c>
+      <c r="B32" t="str">
+        <v>testqas@gmail.com</v>
+      </c>
+      <c r="C32" t="str">
+        <v>performance of special funds</v>
+      </c>
+      <c r="D32" t="str">
+        <v>2025-09-06T06:48:23.434Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D28"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D32"/>
   </ignoredErrors>
 </worksheet>
 </file>